--- a/src/main/resources/KNX adressen.xlsx
+++ b/src/main/resources/KNX adressen.xlsx
@@ -4806,8 +4806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="G436" sqref="G436"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4821,1149 +4821,1149 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>848</v>
+        <v>1148</v>
       </c>
       <c r="B1" t="s">
-        <v>1294</v>
+        <v>1303</v>
       </c>
       <c r="C1" t="s">
         <v>836</v>
       </c>
       <c r="D1" t="s">
-        <v>828</v>
+        <v>1306</v>
       </c>
       <c r="E1" t="s">
-        <v>837</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>849</v>
+        <v>1149</v>
       </c>
       <c r="B2" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C2" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D2" t="s">
-        <v>830</v>
+        <v>1306</v>
       </c>
       <c r="E2" t="s">
-        <v>838</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>850</v>
+        <v>1153</v>
       </c>
       <c r="B3" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C3" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D3" t="s">
-        <v>831</v>
+        <v>1306</v>
       </c>
       <c r="E3" t="s">
-        <v>837</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>851</v>
+        <v>1154</v>
       </c>
       <c r="B4" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C4" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D4" t="s">
-        <v>831</v>
+        <v>1306</v>
       </c>
       <c r="E4" t="s">
-        <v>839</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>852</v>
+        <v>1155</v>
       </c>
       <c r="B5" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C5" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D5" t="s">
-        <v>830</v>
+        <v>1306</v>
       </c>
       <c r="E5" t="s">
-        <v>840</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>853</v>
+        <v>1156</v>
       </c>
       <c r="B6" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C6" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D6" t="s">
-        <v>828</v>
+        <v>1306</v>
       </c>
       <c r="E6" t="s">
-        <v>841</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>854</v>
+        <v>1157</v>
       </c>
       <c r="B7" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C7" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D7" t="s">
-        <v>828</v>
+        <v>1306</v>
       </c>
       <c r="E7" t="s">
-        <v>842</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>855</v>
+        <v>1186</v>
       </c>
       <c r="B8" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C8" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D8" t="s">
-        <v>828</v>
+        <v>1306</v>
       </c>
       <c r="E8" t="s">
-        <v>843</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>856</v>
+        <v>1187</v>
       </c>
       <c r="B9" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C9" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D9" t="s">
-        <v>828</v>
+        <v>1306</v>
       </c>
       <c r="E9" t="s">
-        <v>844</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>857</v>
+        <v>1188</v>
       </c>
       <c r="B10" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C10" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D10" t="s">
-        <v>828</v>
+        <v>1306</v>
       </c>
       <c r="E10" t="s">
-        <v>845</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>858</v>
+        <v>1189</v>
       </c>
       <c r="B11" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C11" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D11" t="s">
-        <v>828</v>
+        <v>1306</v>
       </c>
       <c r="E11" t="s">
-        <v>846</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>859</v>
+        <v>1158</v>
       </c>
       <c r="B12" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C12" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D12" t="s">
-        <v>832</v>
+        <v>1306</v>
       </c>
       <c r="E12" t="s">
-        <v>847</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>860</v>
+        <v>1190</v>
       </c>
       <c r="B13" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C13" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D13" t="s">
-        <v>828</v>
+        <v>1306</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>861</v>
+        <v>1191</v>
       </c>
       <c r="B14" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C14" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D14" t="s">
-        <v>828</v>
+        <v>1306</v>
       </c>
       <c r="E14" t="s">
-        <v>1295</v>
+        <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>862</v>
+        <v>1192</v>
       </c>
       <c r="B15" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C15" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D15" t="s">
-        <v>829</v>
+        <v>1306</v>
       </c>
       <c r="E15" t="s">
-        <v>841</v>
+        <v>633</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>863</v>
+        <v>1193</v>
       </c>
       <c r="B16" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C16" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D16" t="s">
-        <v>829</v>
+        <v>1306</v>
       </c>
       <c r="E16" t="s">
-        <v>842</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>864</v>
+        <v>1194</v>
       </c>
       <c r="B17" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C17" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D17" t="s">
-        <v>829</v>
+        <v>1306</v>
       </c>
       <c r="E17" t="s">
-        <v>1295</v>
+        <v>637</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>865</v>
+        <v>1195</v>
       </c>
       <c r="B18" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C18" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D18" t="s">
-        <v>829</v>
+        <v>1306</v>
       </c>
       <c r="E18" t="s">
-        <v>845</v>
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>866</v>
+        <v>1196</v>
       </c>
       <c r="B19" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C19" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D19" t="s">
-        <v>829</v>
+        <v>1306</v>
       </c>
       <c r="E19" t="s">
-        <v>844</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>867</v>
+        <v>1197</v>
       </c>
       <c r="B20" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C20" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D20" t="s">
-        <v>829</v>
+        <v>1306</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>868</v>
+        <v>1198</v>
       </c>
       <c r="B21" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C21" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D21" t="s">
-        <v>829</v>
+        <v>1306</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>645</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>869</v>
+        <v>1199</v>
       </c>
       <c r="B22" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C22" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D22" t="s">
-        <v>830</v>
+        <v>1306</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>647</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="B23" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C23" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D23" t="s">
-        <v>830</v>
+        <v>1306</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>649</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>870</v>
+        <v>1201</v>
       </c>
       <c r="B24" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C24" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D24" t="s">
-        <v>830</v>
+        <v>1306</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>871</v>
+        <v>1202</v>
       </c>
       <c r="B25" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C25" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D25" t="s">
-        <v>830</v>
+        <v>1306</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>872</v>
+        <v>1150</v>
       </c>
       <c r="B26" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C26" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D26" t="s">
-        <v>830</v>
+        <v>1306</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>873</v>
+        <v>1159</v>
       </c>
       <c r="B27" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C27" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D27" t="s">
-        <v>830</v>
+        <v>1306</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>874</v>
+        <v>1209</v>
       </c>
       <c r="B28" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C28" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D28" t="s">
-        <v>830</v>
+        <v>1306</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>667</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>875</v>
+        <v>1210</v>
       </c>
       <c r="B29" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C29" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D29" t="s">
-        <v>830</v>
+        <v>1306</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>669</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>876</v>
+        <v>1165</v>
       </c>
       <c r="B30" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C30" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D30" t="s">
-        <v>830</v>
+        <v>1306</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>877</v>
+        <v>1164</v>
       </c>
       <c r="B31" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C31" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D31" t="s">
-        <v>830</v>
+        <v>1306</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>577</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>878</v>
+        <v>1163</v>
       </c>
       <c r="B32" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C32" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D32" t="s">
-        <v>830</v>
+        <v>1306</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>575</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>879</v>
+        <v>1211</v>
       </c>
       <c r="B33" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C33" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D33" t="s">
-        <v>830</v>
+        <v>1306</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>671</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>880</v>
+        <v>1212</v>
       </c>
       <c r="B34" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C34" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D34" t="s">
-        <v>830</v>
+        <v>1306</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>673</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>881</v>
+        <v>1161</v>
       </c>
       <c r="B35" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C35" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D35" t="s">
-        <v>830</v>
+        <v>1306</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>882</v>
+        <v>1151</v>
       </c>
       <c r="B36" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C36" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D36" t="s">
-        <v>832</v>
+        <v>1306</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>883</v>
+        <v>1162</v>
       </c>
       <c r="B37" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C37" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D37" t="s">
-        <v>832</v>
+        <v>1306</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>884</v>
+        <v>1160</v>
       </c>
       <c r="B38" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C38" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D38" t="s">
-        <v>829</v>
+        <v>1306</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>569</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>885</v>
+        <v>1206</v>
       </c>
       <c r="B39" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C39" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D39" t="s">
-        <v>829</v>
+        <v>1306</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>661</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>886</v>
+        <v>1207</v>
       </c>
       <c r="B40" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C40" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D40" t="s">
-        <v>829</v>
+        <v>1306</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>663</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>887</v>
+        <v>1208</v>
       </c>
       <c r="B41" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C41" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D41" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
+        <v>665</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>888</v>
+        <v>1205</v>
       </c>
       <c r="B42" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C42" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D42" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>659</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>889</v>
+        <v>1203</v>
       </c>
       <c r="B43" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C43" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D43" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>655</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>890</v>
+        <v>1204</v>
       </c>
       <c r="B44" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C44" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D44" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>657</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>891</v>
+        <v>1152</v>
       </c>
       <c r="B45" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C45" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D45" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="E45" t="s">
-        <v>128</v>
+        <v>553</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>892</v>
+        <v>1166</v>
       </c>
       <c r="B46" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C46" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D46" t="s">
-        <v>1297</v>
+        <v>1306</v>
       </c>
       <c r="E46" t="s">
-        <v>131</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>893</v>
+        <v>1167</v>
       </c>
       <c r="B47" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C47" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D47" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="E47" t="s">
-        <v>133</v>
+        <v>583</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>894</v>
+        <v>1168</v>
       </c>
       <c r="B48" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C48" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D48" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="E48" t="s">
-        <v>135</v>
+        <v>585</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>895</v>
+        <v>1169</v>
       </c>
       <c r="B49" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C49" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D49" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="E49" t="s">
-        <v>137</v>
+        <v>587</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>896</v>
+        <v>1170</v>
       </c>
       <c r="B50" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C50" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D50" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>589</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>897</v>
+        <v>1171</v>
       </c>
       <c r="B51" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C51" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D51" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="E51" t="s">
-        <v>143</v>
+        <v>591</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>898</v>
+        <v>1172</v>
       </c>
       <c r="B52" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C52" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D52" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>593</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>899</v>
+        <v>1173</v>
       </c>
       <c r="B53" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C53" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D53" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="E53" t="s">
-        <v>149</v>
+        <v>595</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>900</v>
+        <v>1174</v>
       </c>
       <c r="B54" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C54" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D54" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="E54" t="s">
-        <v>152</v>
+        <v>597</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>901</v>
+        <v>1175</v>
       </c>
       <c r="B55" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C55" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D55" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="E55" t="s">
-        <v>155</v>
+        <v>599</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>902</v>
+        <v>1176</v>
       </c>
       <c r="B56" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C56" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D56" t="s">
-        <v>828</v>
+        <v>1306</v>
       </c>
       <c r="E56" t="s">
-        <v>157</v>
+        <v>601</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>903</v>
+        <v>1177</v>
       </c>
       <c r="B57" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C57" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D57" t="s">
-        <v>828</v>
+        <v>1306</v>
       </c>
       <c r="E57" t="s">
-        <v>160</v>
+        <v>603</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>904</v>
+        <v>1178</v>
       </c>
       <c r="B58" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C58" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D58" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="E58" t="s">
-        <v>163</v>
+        <v>605</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>905</v>
+        <v>1179</v>
       </c>
       <c r="B59" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C59" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D59" t="s">
-        <v>830</v>
+        <v>1306</v>
       </c>
       <c r="E59" t="s">
-        <v>166</v>
+        <v>607</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>906</v>
+        <v>1180</v>
       </c>
       <c r="B60" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C60" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D60" t="s">
-        <v>831</v>
+        <v>1306</v>
       </c>
       <c r="E60" t="s">
-        <v>169</v>
+        <v>609</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>907</v>
+        <v>1181</v>
       </c>
       <c r="B61" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C61" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D61" t="s">
-        <v>831</v>
+        <v>1306</v>
       </c>
       <c r="E61" t="s">
-        <v>172</v>
+        <v>611</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>908</v>
+        <v>1182</v>
       </c>
       <c r="B62" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C62" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D62" t="s">
-        <v>832</v>
+        <v>1306</v>
       </c>
       <c r="E62" t="s">
-        <v>174</v>
+        <v>613</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>909</v>
+        <v>1183</v>
       </c>
       <c r="B63" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
       <c r="C63" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D63" t="s">
-        <v>831</v>
+        <v>1306</v>
       </c>
       <c r="E63" t="s">
-        <v>176</v>
+        <v>615</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>910</v>
+        <v>1184</v>
       </c>
       <c r="B64" t="s">
-        <v>1298</v>
+        <v>1305</v>
       </c>
       <c r="C64" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D64" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="E64" t="s">
-        <v>179</v>
+        <v>617</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>911</v>
+        <v>1185</v>
       </c>
       <c r="B65" t="s">
-        <v>1298</v>
+        <v>1305</v>
       </c>
       <c r="C65" t="s">
-        <v>836</v>
+        <v>1309</v>
       </c>
       <c r="D65" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="E65" t="s">
-        <v>181</v>
+        <v>619</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>912</v>
+        <v>848</v>
       </c>
       <c r="B66" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C66" t="s">
         <v>836</v>
       </c>
       <c r="D66" t="s">
-        <v>1296</v>
+        <v>828</v>
       </c>
       <c r="E66" t="s">
-        <v>183</v>
+        <v>837</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>913</v>
+        <v>885</v>
       </c>
       <c r="B67" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C67" t="s">
         <v>836</v>
       </c>
       <c r="D67" t="s">
-        <v>1296</v>
+        <v>829</v>
       </c>
       <c r="E67" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>914</v>
+        <v>890</v>
       </c>
       <c r="B68" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C68" t="s">
         <v>836</v>
@@ -5972,899 +5972,899 @@
         <v>1296</v>
       </c>
       <c r="E68" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>915</v>
+        <v>853</v>
       </c>
       <c r="B69" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C69" t="s">
         <v>836</v>
       </c>
       <c r="D69" t="s">
-        <v>1296</v>
+        <v>828</v>
       </c>
       <c r="E69" t="s">
-        <v>189</v>
+        <v>841</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>916</v>
+        <v>854</v>
       </c>
       <c r="B70" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C70" t="s">
         <v>836</v>
       </c>
       <c r="D70" t="s">
-        <v>1296</v>
+        <v>828</v>
       </c>
       <c r="E70" t="s">
-        <v>191</v>
+        <v>842</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>917</v>
+        <v>855</v>
       </c>
       <c r="B71" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C71" t="s">
         <v>836</v>
       </c>
       <c r="D71" t="s">
-        <v>1296</v>
+        <v>828</v>
       </c>
       <c r="E71" t="s">
-        <v>193</v>
+        <v>843</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>918</v>
+        <v>884</v>
       </c>
       <c r="B72" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C72" t="s">
         <v>836</v>
       </c>
       <c r="D72" t="s">
-        <v>1296</v>
+        <v>829</v>
       </c>
       <c r="E72" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>919</v>
+        <v>856</v>
       </c>
       <c r="B73" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C73" t="s">
         <v>836</v>
       </c>
       <c r="D73" t="s">
-        <v>1296</v>
+        <v>828</v>
       </c>
       <c r="E73" t="s">
-        <v>197</v>
+        <v>844</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>920</v>
+        <v>857</v>
       </c>
       <c r="B74" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C74" t="s">
         <v>836</v>
       </c>
       <c r="D74" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E74" t="s">
-        <v>199</v>
+        <v>845</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>921</v>
+        <v>858</v>
       </c>
       <c r="B75" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C75" t="s">
         <v>836</v>
       </c>
       <c r="D75" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E75" t="s">
-        <v>201</v>
+        <v>846</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>922</v>
+        <v>859</v>
       </c>
       <c r="B76" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C76" t="s">
         <v>836</v>
       </c>
       <c r="D76" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E76" t="s">
-        <v>203</v>
+        <v>847</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>923</v>
+        <v>860</v>
       </c>
       <c r="B77" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C77" t="s">
         <v>836</v>
       </c>
       <c r="D77" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E77" t="s">
-        <v>205</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
       <c r="B78" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C78" t="s">
         <v>836</v>
       </c>
       <c r="D78" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E78" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>925</v>
+        <v>861</v>
       </c>
       <c r="B79" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C79" t="s">
         <v>836</v>
       </c>
       <c r="D79" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E79" t="s">
-        <v>209</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>926</v>
+        <v>862</v>
       </c>
       <c r="B80" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C80" t="s">
         <v>836</v>
       </c>
       <c r="D80" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E80" t="s">
-        <v>211</v>
+        <v>841</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>927</v>
+        <v>863</v>
       </c>
       <c r="B81" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C81" t="s">
         <v>836</v>
       </c>
       <c r="D81" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E81" t="s">
-        <v>213</v>
+        <v>842</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>928</v>
+        <v>864</v>
       </c>
       <c r="B82" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C82" t="s">
         <v>836</v>
       </c>
       <c r="D82" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E82" t="s">
-        <v>215</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>929</v>
+        <v>865</v>
       </c>
       <c r="B83" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C83" t="s">
         <v>836</v>
       </c>
       <c r="D83" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E83" t="s">
-        <v>217</v>
+        <v>845</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>930</v>
+        <v>866</v>
       </c>
       <c r="B84" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C84" t="s">
         <v>836</v>
       </c>
       <c r="D84" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E84" t="s">
-        <v>1</v>
+        <v>844</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>931</v>
+        <v>867</v>
       </c>
       <c r="B85" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C85" t="s">
         <v>836</v>
       </c>
       <c r="D85" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E85" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>932</v>
+        <v>868</v>
       </c>
       <c r="B86" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C86" t="s">
         <v>836</v>
       </c>
       <c r="D86" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E86" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>933</v>
+        <v>869</v>
       </c>
       <c r="B87" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C87" t="s">
         <v>836</v>
       </c>
       <c r="D87" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>934</v>
+        <v>350</v>
       </c>
       <c r="B88" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C88" t="s">
         <v>836</v>
       </c>
       <c r="D88" t="s">
-        <v>1306</v>
+        <v>830</v>
       </c>
       <c r="E88" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>935</v>
+        <v>904</v>
       </c>
       <c r="B89" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C89" t="s">
         <v>836</v>
       </c>
       <c r="D89" t="s">
-        <v>828</v>
+        <v>1296</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>936</v>
+        <v>870</v>
       </c>
       <c r="B90" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C90" t="s">
         <v>836</v>
       </c>
       <c r="D90" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E90" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>937</v>
+        <v>871</v>
       </c>
       <c r="B91" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C91" t="s">
         <v>836</v>
       </c>
       <c r="D91" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E91" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>938</v>
+        <v>872</v>
       </c>
       <c r="B92" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C92" t="s">
         <v>836</v>
       </c>
       <c r="D92" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E92" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>939</v>
+        <v>873</v>
       </c>
       <c r="B93" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C93" t="s">
         <v>836</v>
       </c>
       <c r="D93" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E93" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>940</v>
+        <v>874</v>
       </c>
       <c r="B94" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C94" t="s">
         <v>836</v>
       </c>
       <c r="D94" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E94" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>941</v>
+        <v>875</v>
       </c>
       <c r="B95" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C95" t="s">
         <v>836</v>
       </c>
       <c r="D95" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>942</v>
+        <v>876</v>
       </c>
       <c r="B96" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C96" t="s">
         <v>836</v>
       </c>
       <c r="D96" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>943</v>
+        <v>877</v>
       </c>
       <c r="B97" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C97" t="s">
         <v>836</v>
       </c>
       <c r="D97" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>944</v>
+        <v>878</v>
       </c>
       <c r="B98" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C98" t="s">
         <v>836</v>
       </c>
       <c r="D98" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>945</v>
+        <v>879</v>
       </c>
       <c r="B99" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C99" t="s">
         <v>836</v>
       </c>
       <c r="D99" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E99" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>946</v>
+        <v>905</v>
       </c>
       <c r="B100" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C100" t="s">
         <v>836</v>
       </c>
       <c r="D100" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E100" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>947</v>
+        <v>880</v>
       </c>
       <c r="B101" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C101" t="s">
         <v>836</v>
       </c>
       <c r="D101" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E101" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>948</v>
+        <v>881</v>
       </c>
       <c r="B102" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C102" t="s">
         <v>836</v>
       </c>
       <c r="D102" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E102" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>949</v>
+        <v>882</v>
       </c>
       <c r="B103" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C103" t="s">
         <v>836</v>
       </c>
       <c r="D103" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="E103" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>950</v>
+        <v>883</v>
       </c>
       <c r="B104" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C104" t="s">
         <v>836</v>
       </c>
       <c r="D104" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="E104" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>951</v>
+        <v>891</v>
       </c>
       <c r="B105" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C105" t="s">
         <v>836</v>
       </c>
       <c r="D105" t="s">
-        <v>830</v>
+        <v>1296</v>
       </c>
       <c r="E105" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>69</v>
+        <v>892</v>
       </c>
       <c r="B106" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C106" t="s">
         <v>836</v>
       </c>
       <c r="D106" t="s">
-        <v>830</v>
+        <v>1297</v>
       </c>
       <c r="E106" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>952</v>
+        <v>893</v>
       </c>
       <c r="B107" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C107" t="s">
         <v>836</v>
       </c>
       <c r="D107" t="s">
-        <v>830</v>
+        <v>1296</v>
       </c>
       <c r="E107" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>953</v>
+        <v>894</v>
       </c>
       <c r="B108" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C108" t="s">
         <v>836</v>
       </c>
       <c r="D108" t="s">
-        <v>830</v>
+        <v>1296</v>
       </c>
       <c r="E108" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>954</v>
+        <v>895</v>
       </c>
       <c r="B109" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C109" t="s">
         <v>836</v>
       </c>
       <c r="D109" t="s">
-        <v>830</v>
+        <v>1296</v>
       </c>
       <c r="E109" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>955</v>
+        <v>896</v>
       </c>
       <c r="B110" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C110" t="s">
         <v>836</v>
       </c>
       <c r="D110" t="s">
-        <v>830</v>
+        <v>1296</v>
       </c>
       <c r="E110" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>956</v>
+        <v>897</v>
       </c>
       <c r="B111" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C111" t="s">
         <v>836</v>
       </c>
       <c r="D111" t="s">
-        <v>830</v>
+        <v>1296</v>
       </c>
       <c r="E111" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>957</v>
+        <v>898</v>
       </c>
       <c r="B112" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C112" t="s">
         <v>836</v>
       </c>
       <c r="D112" t="s">
-        <v>830</v>
+        <v>1296</v>
       </c>
       <c r="E112" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>958</v>
+        <v>899</v>
       </c>
       <c r="B113" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C113" t="s">
         <v>836</v>
       </c>
       <c r="D113" t="s">
-        <v>830</v>
+        <v>1296</v>
       </c>
       <c r="E113" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>959</v>
+        <v>900</v>
       </c>
       <c r="B114" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C114" t="s">
         <v>836</v>
       </c>
       <c r="D114" t="s">
-        <v>830</v>
+        <v>1296</v>
       </c>
       <c r="E114" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>960</v>
+        <v>901</v>
       </c>
       <c r="B115" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C115" t="s">
         <v>836</v>
       </c>
       <c r="D115" t="s">
-        <v>830</v>
+        <v>1296</v>
       </c>
       <c r="E115" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>961</v>
+        <v>902</v>
       </c>
       <c r="B116" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C116" t="s">
         <v>836</v>
       </c>
       <c r="D116" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E116" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>962</v>
+        <v>906</v>
       </c>
       <c r="B117" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C117" t="s">
         <v>836</v>
       </c>
       <c r="D117" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E117" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>963</v>
+        <v>907</v>
       </c>
       <c r="B118" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C118" t="s">
         <v>836</v>
       </c>
       <c r="D118" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E118" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>964</v>
+        <v>908</v>
       </c>
       <c r="B119" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C119" t="s">
         <v>836</v>
       </c>
       <c r="D119" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E119" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>965</v>
+        <v>909</v>
       </c>
       <c r="B120" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C120" t="s">
         <v>836</v>
       </c>
       <c r="D120" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E120" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>966</v>
+        <v>886</v>
       </c>
       <c r="B121" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C121" t="s">
         <v>836</v>
@@ -6873,83 +6873,83 @@
         <v>829</v>
       </c>
       <c r="E121" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>967</v>
+        <v>852</v>
       </c>
       <c r="B122" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C122" t="s">
         <v>836</v>
       </c>
       <c r="D122" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E122" t="s">
-        <v>110</v>
+        <v>840</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>968</v>
+        <v>849</v>
       </c>
       <c r="B123" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C123" t="s">
         <v>836</v>
       </c>
       <c r="D123" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E123" t="s">
-        <v>113</v>
+        <v>838</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>969</v>
+        <v>850</v>
       </c>
       <c r="B124" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C124" t="s">
         <v>836</v>
       </c>
       <c r="D124" t="s">
-        <v>1296</v>
+        <v>831</v>
       </c>
       <c r="E124" t="s">
-        <v>128</v>
+        <v>837</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>970</v>
+        <v>851</v>
       </c>
       <c r="B125" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C125" t="s">
         <v>836</v>
       </c>
       <c r="D125" t="s">
-        <v>1297</v>
+        <v>831</v>
       </c>
       <c r="E125" t="s">
-        <v>131</v>
+        <v>839</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>971</v>
+        <v>887</v>
       </c>
       <c r="B126" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C126" t="s">
         <v>836</v>
@@ -6958,15 +6958,15 @@
         <v>1296</v>
       </c>
       <c r="E126" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>972</v>
+        <v>888</v>
       </c>
       <c r="B127" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C127" t="s">
         <v>836</v>
@@ -6975,15 +6975,15 @@
         <v>1296</v>
       </c>
       <c r="E127" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>138</v>
+        <v>889</v>
       </c>
       <c r="B128" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C128" t="s">
         <v>836</v>
@@ -6992,12 +6992,12 @@
         <v>1296</v>
       </c>
       <c r="E128" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>973</v>
+        <v>930</v>
       </c>
       <c r="B129" t="s">
         <v>1299</v>
@@ -7006,15 +7006,15 @@
         <v>836</v>
       </c>
       <c r="D129" t="s">
-        <v>1296</v>
+        <v>828</v>
       </c>
       <c r="E129" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="B130" t="s">
         <v>1299</v>
@@ -7023,15 +7023,15 @@
         <v>836</v>
       </c>
       <c r="D130" t="s">
-        <v>1296</v>
+        <v>829</v>
       </c>
       <c r="E130" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="B131" t="s">
         <v>1299</v>
@@ -7043,12 +7043,12 @@
         <v>1296</v>
       </c>
       <c r="E131" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>976</v>
+        <v>935</v>
       </c>
       <c r="B132" t="s">
         <v>1299</v>
@@ -7057,15 +7057,15 @@
         <v>836</v>
       </c>
       <c r="D132" t="s">
-        <v>1296</v>
+        <v>828</v>
       </c>
       <c r="E132" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>977</v>
+        <v>936</v>
       </c>
       <c r="B133" t="s">
         <v>1299</v>
@@ -7074,15 +7074,15 @@
         <v>836</v>
       </c>
       <c r="D133" t="s">
-        <v>1296</v>
+        <v>828</v>
       </c>
       <c r="E133" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>978</v>
+        <v>937</v>
       </c>
       <c r="B134" t="s">
         <v>1299</v>
@@ -7091,15 +7091,15 @@
         <v>836</v>
       </c>
       <c r="D134" t="s">
-        <v>1296</v>
+        <v>828</v>
       </c>
       <c r="E134" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="B135" t="s">
         <v>1299</v>
@@ -7108,15 +7108,15 @@
         <v>836</v>
       </c>
       <c r="D135" t="s">
-        <v>1296</v>
+        <v>829</v>
       </c>
       <c r="E135" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>980</v>
+        <v>938</v>
       </c>
       <c r="B136" t="s">
         <v>1299</v>
@@ -7125,15 +7125,15 @@
         <v>836</v>
       </c>
       <c r="D136" t="s">
-        <v>1296</v>
+        <v>828</v>
       </c>
       <c r="E136" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>981</v>
+        <v>939</v>
       </c>
       <c r="B137" t="s">
         <v>1299</v>
@@ -7142,15 +7142,15 @@
         <v>836</v>
       </c>
       <c r="D137" t="s">
-        <v>1296</v>
+        <v>828</v>
       </c>
       <c r="E137" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>982</v>
+        <v>940</v>
       </c>
       <c r="B138" t="s">
         <v>1299</v>
@@ -7162,12 +7162,12 @@
         <v>828</v>
       </c>
       <c r="E138" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>983</v>
+        <v>941</v>
       </c>
       <c r="B139" t="s">
         <v>1299</v>
@@ -7176,15 +7176,15 @@
         <v>836</v>
       </c>
       <c r="D139" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="E139" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>984</v>
+        <v>942</v>
       </c>
       <c r="B140" t="s">
         <v>1299</v>
@@ -7193,15 +7193,15 @@
         <v>836</v>
       </c>
       <c r="D140" t="s">
-        <v>1296</v>
+        <v>828</v>
       </c>
       <c r="E140" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B141" t="s">
         <v>1299</v>
@@ -7210,15 +7210,15 @@
         <v>836</v>
       </c>
       <c r="D141" t="s">
-        <v>1296</v>
+        <v>828</v>
       </c>
       <c r="E141" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>986</v>
+        <v>943</v>
       </c>
       <c r="B142" t="s">
         <v>1299</v>
@@ -7227,15 +7227,15 @@
         <v>836</v>
       </c>
       <c r="D142" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E142" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>987</v>
+        <v>944</v>
       </c>
       <c r="B143" t="s">
         <v>1299</v>
@@ -7244,15 +7244,15 @@
         <v>836</v>
       </c>
       <c r="D143" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E143" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>988</v>
+        <v>945</v>
       </c>
       <c r="B144" t="s">
         <v>1299</v>
@@ -7261,15 +7261,15 @@
         <v>836</v>
       </c>
       <c r="D144" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E144" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>989</v>
+        <v>946</v>
       </c>
       <c r="B145" t="s">
         <v>1299</v>
@@ -7278,15 +7278,15 @@
         <v>836</v>
       </c>
       <c r="D145" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E145" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>990</v>
+        <v>947</v>
       </c>
       <c r="B146" t="s">
         <v>1299</v>
@@ -7295,239 +7295,239 @@
         <v>836</v>
       </c>
       <c r="D146" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E146" t="s">
-        <v>176</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>991</v>
+        <v>948</v>
       </c>
       <c r="B147" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C147" t="s">
         <v>836</v>
       </c>
       <c r="D147" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E147" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>992</v>
+        <v>949</v>
       </c>
       <c r="B148" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C148" t="s">
         <v>836</v>
       </c>
       <c r="D148" t="s">
-        <v>1306</v>
+        <v>829</v>
       </c>
       <c r="E148" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>993</v>
+        <v>950</v>
       </c>
       <c r="B149" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C149" t="s">
         <v>836</v>
       </c>
       <c r="D149" t="s">
-        <v>1306</v>
+        <v>829</v>
       </c>
       <c r="E149" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>994</v>
+        <v>951</v>
       </c>
       <c r="B150" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C150" t="s">
         <v>836</v>
       </c>
       <c r="D150" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E150" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>995</v>
+        <v>69</v>
       </c>
       <c r="B151" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C151" t="s">
         <v>836</v>
       </c>
       <c r="D151" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E151" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="B152" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C152" t="s">
         <v>836</v>
       </c>
       <c r="D152" t="s">
-        <v>829</v>
+        <v>1296</v>
       </c>
       <c r="E152" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>997</v>
+        <v>952</v>
       </c>
       <c r="B153" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C153" t="s">
         <v>836</v>
       </c>
       <c r="D153" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E153" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>998</v>
+        <v>953</v>
       </c>
       <c r="B154" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C154" t="s">
         <v>836</v>
       </c>
       <c r="D154" t="s">
-        <v>1296</v>
+        <v>830</v>
       </c>
       <c r="E154" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>999</v>
+        <v>954</v>
       </c>
       <c r="B155" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C155" t="s">
         <v>836</v>
       </c>
       <c r="D155" t="s">
-        <v>1296</v>
+        <v>830</v>
       </c>
       <c r="E155" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>1000</v>
+        <v>955</v>
       </c>
       <c r="B156" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C156" t="s">
         <v>836</v>
       </c>
       <c r="D156" t="s">
-        <v>1296</v>
+        <v>830</v>
       </c>
       <c r="E156" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>1001</v>
+        <v>956</v>
       </c>
       <c r="B157" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C157" t="s">
         <v>836</v>
       </c>
       <c r="D157" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E157" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>1002</v>
+        <v>957</v>
       </c>
       <c r="B158" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C158" t="s">
         <v>836</v>
       </c>
       <c r="D158" t="s">
-        <v>1296</v>
+        <v>830</v>
       </c>
       <c r="E158" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>1003</v>
+        <v>958</v>
       </c>
       <c r="B159" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C159" t="s">
         <v>836</v>
       </c>
       <c r="D159" t="s">
-        <v>1296</v>
+        <v>830</v>
       </c>
       <c r="E159" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>1004</v>
+        <v>959</v>
       </c>
       <c r="B160" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C160" t="s">
         <v>836</v>
@@ -7536,134 +7536,134 @@
         <v>830</v>
       </c>
       <c r="E160" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>1005</v>
+        <v>960</v>
       </c>
       <c r="B161" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C161" t="s">
         <v>836</v>
       </c>
       <c r="D161" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E161" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>1006</v>
+        <v>961</v>
       </c>
       <c r="B162" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C162" t="s">
         <v>836</v>
       </c>
       <c r="D162" t="s">
-        <v>1306</v>
+        <v>830</v>
       </c>
       <c r="E162" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="B163" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C163" t="s">
         <v>836</v>
       </c>
       <c r="D163" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E163" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>1008</v>
+        <v>962</v>
       </c>
       <c r="B164" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C164" t="s">
         <v>836</v>
       </c>
       <c r="D164" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E164" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>1009</v>
+        <v>963</v>
       </c>
       <c r="B165" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C165" t="s">
         <v>836</v>
       </c>
       <c r="D165" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E165" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>1010</v>
+        <v>964</v>
       </c>
       <c r="B166" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C166" t="s">
         <v>836</v>
       </c>
       <c r="D166" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E166" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>1011</v>
+        <v>965</v>
       </c>
       <c r="B167" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C167" t="s">
         <v>836</v>
       </c>
       <c r="D167" t="s">
-        <v>1296</v>
+        <v>830</v>
       </c>
       <c r="E167" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>1012</v>
+        <v>969</v>
       </c>
       <c r="B168" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C168" t="s">
         <v>836</v>
@@ -7672,32 +7672,32 @@
         <v>1296</v>
       </c>
       <c r="E168" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>1013</v>
+        <v>970</v>
       </c>
       <c r="B169" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C169" t="s">
         <v>836</v>
       </c>
       <c r="D169" t="s">
-        <v>828</v>
+        <v>1297</v>
       </c>
       <c r="E169" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>1014</v>
+        <v>971</v>
       </c>
       <c r="B170" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C170" t="s">
         <v>836</v>
@@ -7706,15 +7706,15 @@
         <v>1296</v>
       </c>
       <c r="E170" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>1015</v>
+        <v>972</v>
       </c>
       <c r="B171" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C171" t="s">
         <v>836</v>
@@ -7723,15 +7723,15 @@
         <v>1296</v>
       </c>
       <c r="E171" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>1016</v>
+        <v>138</v>
       </c>
       <c r="B172" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C172" t="s">
         <v>836</v>
@@ -7740,355 +7740,355 @@
         <v>1296</v>
       </c>
       <c r="E172" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>1017</v>
+        <v>973</v>
       </c>
       <c r="B173" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C173" t="s">
         <v>836</v>
       </c>
       <c r="D173" t="s">
-        <v>830</v>
+        <v>1296</v>
       </c>
       <c r="E173" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>1018</v>
+        <v>974</v>
       </c>
       <c r="B174" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C174" t="s">
         <v>836</v>
       </c>
       <c r="D174" t="s">
-        <v>828</v>
+        <v>1296</v>
       </c>
       <c r="E174" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>1019</v>
+        <v>975</v>
       </c>
       <c r="B175" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C175" t="s">
         <v>836</v>
       </c>
       <c r="D175" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="E175" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>1020</v>
+        <v>976</v>
       </c>
       <c r="B176" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C176" t="s">
         <v>836</v>
       </c>
       <c r="D176" t="s">
-        <v>831</v>
+        <v>1296</v>
       </c>
       <c r="E176" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>1021</v>
+        <v>977</v>
       </c>
       <c r="B177" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C177" t="s">
         <v>836</v>
       </c>
       <c r="D177" t="s">
-        <v>831</v>
+        <v>1296</v>
       </c>
       <c r="E177" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>1022</v>
+        <v>981</v>
       </c>
       <c r="B178" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C178" t="s">
         <v>836</v>
       </c>
       <c r="D178" t="s">
-        <v>829</v>
+        <v>1296</v>
       </c>
       <c r="E178" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>1023</v>
+        <v>982</v>
       </c>
       <c r="B179" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C179" t="s">
         <v>836</v>
       </c>
       <c r="D179" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E179" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>1024</v>
+        <v>988</v>
       </c>
       <c r="B180" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C180" t="s">
         <v>836</v>
       </c>
       <c r="D180" t="s">
-        <v>1296</v>
+        <v>831</v>
       </c>
       <c r="E180" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>1025</v>
+        <v>987</v>
       </c>
       <c r="B181" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C181" t="s">
         <v>836</v>
       </c>
       <c r="D181" t="s">
-        <v>1296</v>
+        <v>831</v>
       </c>
       <c r="E181" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>1026</v>
+        <v>989</v>
       </c>
       <c r="B182" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C182" t="s">
         <v>836</v>
       </c>
       <c r="D182" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="E182" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>1027</v>
+        <v>990</v>
       </c>
       <c r="B183" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C183" t="s">
         <v>836</v>
       </c>
       <c r="D183" t="s">
-        <v>1306</v>
+        <v>831</v>
       </c>
       <c r="E183" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>1028</v>
+        <v>968</v>
       </c>
       <c r="B184" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C184" t="s">
         <v>836</v>
       </c>
       <c r="D184" t="s">
-        <v>1296</v>
+        <v>829</v>
       </c>
       <c r="E184" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>1029</v>
+        <v>934</v>
       </c>
       <c r="B185" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C185" t="s">
         <v>836</v>
       </c>
       <c r="D185" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="E185" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>1030</v>
+        <v>931</v>
       </c>
       <c r="B186" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C186" t="s">
         <v>836</v>
       </c>
       <c r="D186" t="s">
-        <v>1296</v>
+        <v>830</v>
       </c>
       <c r="E186" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>1031</v>
+        <v>932</v>
       </c>
       <c r="B187" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C187" t="s">
         <v>836</v>
       </c>
       <c r="D187" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E187" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>1032</v>
+        <v>933</v>
       </c>
       <c r="B188" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="C188" t="s">
         <v>836</v>
       </c>
       <c r="D188" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="E188" t="s">
-        <v>325</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>1033</v>
+        <v>978</v>
       </c>
       <c r="B189" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="C189" t="s">
         <v>836</v>
       </c>
       <c r="D189" t="s">
-        <v>831</v>
+        <v>1296</v>
       </c>
       <c r="E189" t="s">
-        <v>327</v>
+        <v>116</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>1034</v>
+        <v>979</v>
       </c>
       <c r="B190" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="C190" t="s">
         <v>836</v>
       </c>
       <c r="D190" t="s">
-        <v>829</v>
+        <v>1296</v>
       </c>
       <c r="E190" t="s">
-        <v>329</v>
+        <v>119</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>1035</v>
+        <v>980</v>
       </c>
       <c r="B191" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="C191" t="s">
         <v>836</v>
       </c>
       <c r="D191" t="s">
-        <v>828</v>
+        <v>1296</v>
       </c>
       <c r="E191" t="s">
-        <v>331</v>
+        <v>122</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>1036</v>
+        <v>991</v>
       </c>
       <c r="B192" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C192" t="s">
         <v>836</v>
       </c>
       <c r="D192" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E192" t="s">
-        <v>333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>1037</v>
+        <v>996</v>
       </c>
       <c r="B193" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C193" t="s">
         <v>836</v>
@@ -8097,15 +8097,15 @@
         <v>829</v>
       </c>
       <c r="E193" t="s">
-        <v>335</v>
+        <v>110</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>1038</v>
+        <v>1003</v>
       </c>
       <c r="B194" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C194" t="s">
         <v>836</v>
@@ -8114,32 +8114,32 @@
         <v>1296</v>
       </c>
       <c r="E194" t="s">
-        <v>337</v>
+        <v>125</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>1039</v>
+        <v>1001</v>
       </c>
       <c r="B195" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C195" t="s">
         <v>836</v>
       </c>
       <c r="D195" t="s">
-        <v>1296</v>
+        <v>828</v>
       </c>
       <c r="E195" t="s">
-        <v>339</v>
+        <v>160</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>1040</v>
+        <v>1002</v>
       </c>
       <c r="B196" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C196" t="s">
         <v>836</v>
@@ -8148,15 +8148,15 @@
         <v>1296</v>
       </c>
       <c r="E196" t="s">
-        <v>341</v>
+        <v>163</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>1041</v>
+        <v>1004</v>
       </c>
       <c r="B197" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C197" t="s">
         <v>836</v>
@@ -8165,185 +8165,185 @@
         <v>830</v>
       </c>
       <c r="E197" t="s">
-        <v>343</v>
+        <v>166</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>1042</v>
+        <v>997</v>
       </c>
       <c r="B198" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C198" t="s">
         <v>836</v>
       </c>
       <c r="D198" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E198" t="s">
-        <v>345</v>
+        <v>113</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>1043</v>
+        <v>992</v>
       </c>
       <c r="B199" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C199" t="s">
         <v>836</v>
       </c>
       <c r="D199" t="s">
-        <v>831</v>
+        <v>1306</v>
       </c>
       <c r="E199" t="s">
-        <v>347</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>1044</v>
+        <v>993</v>
       </c>
       <c r="B200" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C200" t="s">
         <v>836</v>
       </c>
       <c r="D200" t="s">
-        <v>830</v>
+        <v>1306</v>
       </c>
       <c r="E200" t="s">
-        <v>349</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>1045</v>
+        <v>994</v>
       </c>
       <c r="B201" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C201" t="s">
         <v>836</v>
       </c>
       <c r="D201" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E201" t="s">
-        <v>352</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>1046</v>
+        <v>995</v>
       </c>
       <c r="B202" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C202" t="s">
         <v>836</v>
       </c>
       <c r="D202" t="s">
-        <v>1296</v>
+        <v>831</v>
       </c>
       <c r="E202" t="s">
-        <v>355</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>1047</v>
+        <v>998</v>
       </c>
       <c r="B203" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C203" t="s">
         <v>836</v>
       </c>
       <c r="D203" t="s">
-        <v>828</v>
+        <v>1296</v>
       </c>
       <c r="E203" t="s">
-        <v>357</v>
+        <v>116</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>1048</v>
+        <v>999</v>
       </c>
       <c r="B204" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C204" t="s">
         <v>836</v>
       </c>
       <c r="D204" t="s">
-        <v>829</v>
+        <v>1296</v>
       </c>
       <c r="E204" t="s">
-        <v>359</v>
+        <v>119</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>1049</v>
+        <v>1000</v>
       </c>
       <c r="B205" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C205" t="s">
         <v>836</v>
       </c>
       <c r="D205" t="s">
-        <v>831</v>
+        <v>1296</v>
       </c>
       <c r="E205" t="s">
-        <v>361</v>
+        <v>122</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>1050</v>
+        <v>1005</v>
       </c>
       <c r="B206" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C206" t="s">
         <v>836</v>
       </c>
       <c r="D206" t="s">
-        <v>1296</v>
+        <v>828</v>
       </c>
       <c r="E206" t="s">
-        <v>363</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>1051</v>
+        <v>1009</v>
       </c>
       <c r="B207" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C207" t="s">
         <v>836</v>
       </c>
       <c r="D207" t="s">
-        <v>1296</v>
+        <v>829</v>
       </c>
       <c r="E207" t="s">
-        <v>365</v>
+        <v>110</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>1052</v>
+        <v>1016</v>
       </c>
       <c r="B208" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C208" t="s">
         <v>836</v>
@@ -8352,32 +8352,32 @@
         <v>1296</v>
       </c>
       <c r="E208" t="s">
-        <v>367</v>
+        <v>125</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>1053</v>
+        <v>1013</v>
       </c>
       <c r="B209" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C209" t="s">
         <v>836</v>
       </c>
       <c r="D209" t="s">
-        <v>1296</v>
+        <v>828</v>
       </c>
       <c r="E209" t="s">
-        <v>369</v>
+        <v>160</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>1054</v>
+        <v>1014</v>
       </c>
       <c r="B210" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C210" t="s">
         <v>836</v>
@@ -8386,1256 +8386,1256 @@
         <v>1296</v>
       </c>
       <c r="E210" t="s">
-        <v>371</v>
+        <v>163</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>1055</v>
+        <v>1017</v>
       </c>
       <c r="B211" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C211" t="s">
         <v>836</v>
       </c>
       <c r="D211" t="s">
-        <v>1296</v>
+        <v>830</v>
       </c>
       <c r="E211" t="s">
-        <v>373</v>
+        <v>166</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>1056</v>
+        <v>1010</v>
       </c>
       <c r="B212" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C212" t="s">
         <v>836</v>
       </c>
       <c r="D212" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E212" t="s">
-        <v>375</v>
+        <v>113</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>1057</v>
+        <v>1006</v>
       </c>
       <c r="B213" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C213" t="s">
         <v>836</v>
       </c>
       <c r="D213" t="s">
-        <v>830</v>
+        <v>1306</v>
       </c>
       <c r="E213" t="s">
-        <v>377</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>1058</v>
+        <v>1007</v>
       </c>
       <c r="B214" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C214" t="s">
         <v>836</v>
       </c>
       <c r="D214" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E214" t="s">
-        <v>379</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>1059</v>
+        <v>1008</v>
       </c>
       <c r="B215" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C215" t="s">
         <v>836</v>
       </c>
       <c r="D215" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E215" t="s">
-        <v>381</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>1060</v>
+        <v>1011</v>
       </c>
       <c r="B216" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C216" t="s">
         <v>836</v>
       </c>
       <c r="D216" t="s">
-        <v>830</v>
+        <v>1296</v>
       </c>
       <c r="E216" t="s">
-        <v>383</v>
+        <v>116</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>1061</v>
+        <v>1012</v>
       </c>
       <c r="B217" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C217" t="s">
         <v>836</v>
       </c>
       <c r="D217" t="s">
-        <v>830</v>
+        <v>1296</v>
       </c>
       <c r="E217" t="s">
-        <v>385</v>
+        <v>119</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>1062</v>
+        <v>1015</v>
       </c>
       <c r="B218" t="s">
-        <v>1294</v>
+        <v>1301</v>
       </c>
       <c r="C218" t="s">
         <v>836</v>
       </c>
       <c r="D218" t="s">
-        <v>834</v>
+        <v>1296</v>
       </c>
       <c r="E218" t="s">
-        <v>387</v>
+        <v>122</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>1063</v>
+        <v>1018</v>
       </c>
       <c r="B219" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="C219" t="s">
         <v>836</v>
       </c>
       <c r="D219" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="E219" t="s">
-        <v>390</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>1064</v>
+        <v>1022</v>
       </c>
       <c r="B220" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="C220" t="s">
         <v>836</v>
       </c>
       <c r="D220" t="s">
-        <v>1307</v>
+        <v>829</v>
       </c>
       <c r="E220" t="s">
-        <v>393</v>
+        <v>110</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>1065</v>
+        <v>1030</v>
       </c>
       <c r="B221" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="C221" t="s">
         <v>836</v>
       </c>
       <c r="D221" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="E221" t="s">
-        <v>396</v>
+        <v>125</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>1066</v>
+        <v>1026</v>
       </c>
       <c r="B222" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="C222" t="s">
         <v>836</v>
       </c>
       <c r="D222" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="E222" t="s">
-        <v>399</v>
+        <v>160</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>1067</v>
+        <v>1028</v>
       </c>
       <c r="B223" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="C223" t="s">
         <v>836</v>
       </c>
       <c r="D223" t="s">
-        <v>834</v>
+        <v>1296</v>
       </c>
       <c r="E223" t="s">
-        <v>402</v>
+        <v>163</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>1068</v>
+        <v>1031</v>
       </c>
       <c r="B224" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="C224" t="s">
         <v>836</v>
       </c>
       <c r="D224" t="s">
-        <v>1307</v>
+        <v>830</v>
       </c>
       <c r="E224" t="s">
-        <v>405</v>
+        <v>166</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>1069</v>
+        <v>1023</v>
       </c>
       <c r="B225" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="C225" t="s">
         <v>836</v>
       </c>
       <c r="D225" t="s">
-        <v>1307</v>
+        <v>829</v>
       </c>
       <c r="E225" t="s">
-        <v>408</v>
+        <v>113</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>1070</v>
+        <v>1019</v>
       </c>
       <c r="B226" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="C226" t="s">
         <v>836</v>
       </c>
       <c r="D226" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E226" t="s">
-        <v>411</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>1071</v>
+        <v>1027</v>
       </c>
       <c r="B227" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="C227" t="s">
         <v>836</v>
       </c>
       <c r="D227" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E227" t="s">
-        <v>414</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>1072</v>
+        <v>1020</v>
       </c>
       <c r="B228" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="C228" t="s">
         <v>836</v>
       </c>
       <c r="D228" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E228" t="s">
-        <v>417</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>1073</v>
+        <v>1021</v>
       </c>
       <c r="B229" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="C229" t="s">
         <v>836</v>
       </c>
       <c r="D229" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E229" t="s">
-        <v>420</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>1074</v>
+        <v>1024</v>
       </c>
       <c r="B230" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="C230" t="s">
         <v>836</v>
       </c>
       <c r="D230" t="s">
-        <v>834</v>
+        <v>1296</v>
       </c>
       <c r="E230" t="s">
-        <v>423</v>
+        <v>116</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>1075</v>
+        <v>1025</v>
       </c>
       <c r="B231" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="C231" t="s">
         <v>836</v>
       </c>
       <c r="D231" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="E231" t="s">
-        <v>426</v>
+        <v>119</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>1076</v>
+        <v>1029</v>
       </c>
       <c r="B232" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="C232" t="s">
         <v>836</v>
       </c>
       <c r="D232" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="E232" t="s">
-        <v>429</v>
+        <v>122</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>1077</v>
+        <v>1044</v>
       </c>
       <c r="B233" t="s">
-        <v>1294</v>
+        <v>1304</v>
       </c>
       <c r="C233" t="s">
         <v>836</v>
       </c>
       <c r="D233" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E233" t="s">
-        <v>432</v>
+        <v>349</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>1078</v>
+        <v>1045</v>
       </c>
       <c r="B234" t="s">
-        <v>1294</v>
+        <v>1304</v>
       </c>
       <c r="C234" t="s">
         <v>836</v>
       </c>
       <c r="D234" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E234" t="s">
-        <v>435</v>
+        <v>352</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>1079</v>
+        <v>1046</v>
       </c>
       <c r="B235" t="s">
-        <v>1294</v>
+        <v>1304</v>
       </c>
       <c r="C235" t="s">
         <v>836</v>
       </c>
       <c r="D235" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="E235" t="s">
-        <v>438</v>
+        <v>355</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>1080</v>
+        <v>1051</v>
       </c>
       <c r="B236" t="s">
-        <v>1294</v>
+        <v>1304</v>
       </c>
       <c r="C236" t="s">
         <v>836</v>
       </c>
       <c r="D236" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="E236" t="s">
-        <v>441</v>
+        <v>365</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>1081</v>
+        <v>1052</v>
       </c>
       <c r="B237" t="s">
-        <v>1294</v>
+        <v>1304</v>
       </c>
       <c r="C237" t="s">
         <v>836</v>
       </c>
       <c r="D237" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="E237" t="s">
-        <v>444</v>
+        <v>367</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>1082</v>
+        <v>1053</v>
       </c>
       <c r="B238" t="s">
-        <v>1294</v>
+        <v>1304</v>
       </c>
       <c r="C238" t="s">
         <v>836</v>
       </c>
       <c r="D238" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="E238" t="s">
-        <v>447</v>
+        <v>369</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>1083</v>
+        <v>1054</v>
       </c>
       <c r="B239" t="s">
-        <v>1294</v>
+        <v>1304</v>
       </c>
       <c r="C239" t="s">
         <v>836</v>
       </c>
       <c r="D239" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="E239" t="s">
-        <v>450</v>
+        <v>371</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>1084</v>
+        <v>1055</v>
       </c>
       <c r="B240" t="s">
-        <v>1294</v>
+        <v>1304</v>
       </c>
       <c r="C240" t="s">
         <v>836</v>
       </c>
       <c r="D240" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="E240" t="s">
-        <v>453</v>
+        <v>373</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>1085</v>
+        <v>1056</v>
       </c>
       <c r="B241" t="s">
-        <v>1294</v>
+        <v>1304</v>
       </c>
       <c r="C241" t="s">
         <v>836</v>
       </c>
       <c r="D241" t="s">
-        <v>1297</v>
+        <v>830</v>
       </c>
       <c r="E241" t="s">
-        <v>456</v>
+        <v>375</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>1086</v>
+        <v>1047</v>
       </c>
       <c r="B242" t="s">
-        <v>1294</v>
+        <v>1304</v>
       </c>
       <c r="C242" t="s">
         <v>836</v>
       </c>
       <c r="D242" t="s">
-        <v>1308</v>
+        <v>828</v>
       </c>
       <c r="E242" t="s">
-        <v>458</v>
+        <v>357</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>1087</v>
+        <v>1057</v>
       </c>
       <c r="B243" t="s">
-        <v>1294</v>
+        <v>1304</v>
       </c>
       <c r="C243" t="s">
         <v>836</v>
       </c>
       <c r="D243" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E243" t="s">
-        <v>460</v>
+        <v>377</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>1088</v>
+        <v>1048</v>
       </c>
       <c r="B244" t="s">
-        <v>1294</v>
+        <v>1304</v>
       </c>
       <c r="C244" t="s">
         <v>836</v>
       </c>
       <c r="D244" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="E244" t="s">
-        <v>463</v>
+        <v>359</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>1089</v>
+        <v>1058</v>
       </c>
       <c r="B245" t="s">
-        <v>1294</v>
+        <v>1304</v>
       </c>
       <c r="C245" t="s">
         <v>836</v>
       </c>
       <c r="D245" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E245" t="s">
-        <v>466</v>
+        <v>379</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>1090</v>
+        <v>1049</v>
       </c>
       <c r="B246" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="C246" t="s">
         <v>836</v>
       </c>
       <c r="D246" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E246" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>1091</v>
+        <v>1059</v>
       </c>
       <c r="B247" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="C247" t="s">
         <v>836</v>
       </c>
       <c r="D247" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E247" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>1092</v>
+        <v>1050</v>
       </c>
       <c r="B248" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="C248" t="s">
         <v>836</v>
       </c>
       <c r="D248" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="E248" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>1093</v>
+        <v>1060</v>
       </c>
       <c r="B249" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="C249" t="s">
         <v>836</v>
       </c>
       <c r="D249" t="s">
-        <v>1307</v>
+        <v>830</v>
       </c>
       <c r="E249" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>1094</v>
+        <v>1061</v>
       </c>
       <c r="B250" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="C250" t="s">
         <v>836</v>
       </c>
       <c r="D250" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E250" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>1095</v>
+        <v>910</v>
       </c>
       <c r="B251" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C251" t="s">
         <v>836</v>
       </c>
       <c r="D251" t="s">
-        <v>834</v>
+        <v>1296</v>
       </c>
       <c r="E251" t="s">
-        <v>402</v>
+        <v>179</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>1096</v>
+        <v>911</v>
       </c>
       <c r="B252" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C252" t="s">
         <v>836</v>
       </c>
       <c r="D252" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="E252" t="s">
-        <v>405</v>
+        <v>181</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>1097</v>
+        <v>912</v>
       </c>
       <c r="B253" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C253" t="s">
         <v>836</v>
       </c>
       <c r="D253" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="E253" t="s">
-        <v>408</v>
+        <v>183</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>1098</v>
+        <v>920</v>
       </c>
       <c r="B254" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C254" t="s">
         <v>836</v>
       </c>
       <c r="D254" t="s">
-        <v>1307</v>
+        <v>830</v>
       </c>
       <c r="E254" t="s">
-        <v>411</v>
+        <v>199</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>1099</v>
+        <v>924</v>
       </c>
       <c r="B255" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C255" t="s">
         <v>836</v>
       </c>
       <c r="D255" t="s">
-        <v>1307</v>
+        <v>830</v>
       </c>
       <c r="E255" t="s">
-        <v>414</v>
+        <v>207</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>1100</v>
+        <v>921</v>
       </c>
       <c r="B256" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C256" t="s">
         <v>836</v>
       </c>
       <c r="D256" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E256" t="s">
-        <v>417</v>
+        <v>201</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>1101</v>
+        <v>925</v>
       </c>
       <c r="B257" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C257" t="s">
         <v>836</v>
       </c>
       <c r="D257" t="s">
-        <v>1307</v>
+        <v>830</v>
       </c>
       <c r="E257" t="s">
-        <v>426</v>
+        <v>209</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>430</v>
+        <v>922</v>
       </c>
       <c r="B258" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C258" t="s">
         <v>836</v>
       </c>
       <c r="D258" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E258" t="s">
-        <v>429</v>
+        <v>203</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>1102</v>
+        <v>926</v>
       </c>
       <c r="B259" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C259" t="s">
         <v>836</v>
       </c>
       <c r="D259" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E259" t="s">
-        <v>432</v>
+        <v>211</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>1103</v>
+        <v>923</v>
       </c>
       <c r="B260" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C260" t="s">
         <v>836</v>
       </c>
       <c r="D260" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E260" t="s">
-        <v>435</v>
+        <v>205</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>1104</v>
+        <v>927</v>
       </c>
       <c r="B261" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C261" t="s">
         <v>836</v>
       </c>
       <c r="D261" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E261" t="s">
-        <v>420</v>
+        <v>213</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>1105</v>
+        <v>928</v>
       </c>
       <c r="B262" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C262" t="s">
         <v>836</v>
       </c>
       <c r="D262" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E262" t="s">
-        <v>423</v>
+        <v>215</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>1106</v>
+        <v>915</v>
       </c>
       <c r="B263" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C263" t="s">
         <v>836</v>
       </c>
       <c r="D263" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="E263" t="s">
-        <v>438</v>
+        <v>189</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>1107</v>
+        <v>929</v>
       </c>
       <c r="B264" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C264" t="s">
         <v>836</v>
       </c>
       <c r="D264" t="s">
-        <v>1307</v>
+        <v>830</v>
       </c>
       <c r="E264" t="s">
-        <v>441</v>
+        <v>217</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>1108</v>
+        <v>913</v>
       </c>
       <c r="B265" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C265" t="s">
         <v>836</v>
       </c>
       <c r="D265" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="E265" t="s">
-        <v>444</v>
+        <v>185</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>1109</v>
+        <v>916</v>
       </c>
       <c r="B266" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C266" t="s">
         <v>836</v>
       </c>
       <c r="D266" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="E266" t="s">
-        <v>447</v>
+        <v>191</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>1110</v>
+        <v>914</v>
       </c>
       <c r="B267" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C267" t="s">
         <v>836</v>
       </c>
       <c r="D267" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="E267" t="s">
-        <v>450</v>
+        <v>187</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>1111</v>
+        <v>917</v>
       </c>
       <c r="B268" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C268" t="s">
         <v>836</v>
       </c>
       <c r="D268" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="E268" t="s">
-        <v>453</v>
+        <v>193</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>1112</v>
+        <v>918</v>
       </c>
       <c r="B269" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C269" t="s">
         <v>836</v>
       </c>
       <c r="D269" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="E269" t="s">
-        <v>456</v>
+        <v>195</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>1113</v>
+        <v>919</v>
       </c>
       <c r="B270" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C270" t="s">
         <v>836</v>
       </c>
       <c r="D270" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="E270" t="s">
-        <v>458</v>
+        <v>197</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>1114</v>
+        <v>1041</v>
       </c>
       <c r="B271" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="C271" t="s">
         <v>836</v>
       </c>
       <c r="D271" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E271" t="s">
-        <v>460</v>
+        <v>343</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>1115</v>
+        <v>1032</v>
       </c>
       <c r="B272" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="C272" t="s">
         <v>836</v>
       </c>
       <c r="D272" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="E272" t="s">
-        <v>463</v>
+        <v>325</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>1116</v>
+        <v>1036</v>
       </c>
       <c r="B273" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="C273" t="s">
         <v>836</v>
       </c>
       <c r="D273" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E273" t="s">
-        <v>466</v>
+        <v>333</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>1117</v>
+        <v>1035</v>
       </c>
       <c r="B274" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="C274" t="s">
         <v>836</v>
       </c>
       <c r="D274" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="E274" t="s">
-        <v>387</v>
+        <v>331</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>1118</v>
+        <v>1037</v>
       </c>
       <c r="B275" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="C275" t="s">
         <v>836</v>
       </c>
       <c r="D275" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="E275" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>1119</v>
+        <v>1040</v>
       </c>
       <c r="B276" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="C276" t="s">
         <v>836</v>
       </c>
       <c r="D276" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="E276" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>1120</v>
+        <v>1043</v>
       </c>
       <c r="B277" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="C277" t="s">
         <v>836</v>
       </c>
       <c r="D277" t="s">
-        <v>1307</v>
+        <v>831</v>
       </c>
       <c r="E277" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>1121</v>
+        <v>1034</v>
       </c>
       <c r="B278" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="C278" t="s">
         <v>836</v>
       </c>
       <c r="D278" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="E278" t="s">
-        <v>399</v>
+        <v>329</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>1122</v>
+        <v>1033</v>
       </c>
       <c r="B279" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="C279" t="s">
         <v>836</v>
       </c>
       <c r="D279" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E279" t="s">
-        <v>402</v>
+        <v>327</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>1123</v>
+        <v>1038</v>
       </c>
       <c r="B280" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="C280" t="s">
         <v>836</v>
       </c>
       <c r="D280" t="s">
-        <v>834</v>
+        <v>1296</v>
       </c>
       <c r="E280" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>1124</v>
+        <v>1039</v>
       </c>
       <c r="B281" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="C281" t="s">
         <v>836</v>
       </c>
       <c r="D281" t="s">
-        <v>834</v>
+        <v>1296</v>
       </c>
       <c r="E281" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>1125</v>
+        <v>1042</v>
       </c>
       <c r="B282" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="C282" t="s">
         <v>836</v>
       </c>
       <c r="D282" t="s">
-        <v>1307</v>
+        <v>831</v>
       </c>
       <c r="E282" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>1126</v>
+        <v>1062</v>
       </c>
       <c r="B283" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="C283" t="s">
         <v>836</v>
       </c>
       <c r="D283" t="s">
-        <v>1307</v>
+        <v>834</v>
       </c>
       <c r="E283" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>1127</v>
+        <v>1063</v>
       </c>
       <c r="B284" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="C284" t="s">
         <v>836</v>
@@ -9644,66 +9644,66 @@
         <v>834</v>
       </c>
       <c r="E284" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>1128</v>
+        <v>1068</v>
       </c>
       <c r="B285" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="C285" t="s">
         <v>836</v>
       </c>
       <c r="D285" t="s">
-        <v>834</v>
+        <v>1307</v>
       </c>
       <c r="E285" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>1129</v>
+        <v>1069</v>
       </c>
       <c r="B286" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="C286" t="s">
         <v>836</v>
       </c>
       <c r="D286" t="s">
-        <v>834</v>
+        <v>1307</v>
       </c>
       <c r="E286" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>1130</v>
+        <v>1079</v>
       </c>
       <c r="B287" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="C287" t="s">
         <v>836</v>
       </c>
       <c r="D287" t="s">
-        <v>834</v>
+        <v>1307</v>
       </c>
       <c r="E287" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>1131</v>
+        <v>1080</v>
       </c>
       <c r="B288" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="C288" t="s">
         <v>836</v>
@@ -9712,15 +9712,15 @@
         <v>1307</v>
       </c>
       <c r="E288" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>1132</v>
+        <v>1070</v>
       </c>
       <c r="B289" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="C289" t="s">
         <v>836</v>
@@ -9729,32 +9729,32 @@
         <v>1307</v>
       </c>
       <c r="E289" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>1133</v>
+        <v>1071</v>
       </c>
       <c r="B290" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="C290" t="s">
         <v>836</v>
       </c>
       <c r="D290" t="s">
-        <v>834</v>
+        <v>1307</v>
       </c>
       <c r="E290" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>1134</v>
+        <v>1072</v>
       </c>
       <c r="B291" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="C291" t="s">
         <v>836</v>
@@ -9763,15 +9763,15 @@
         <v>834</v>
       </c>
       <c r="E291" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>1135</v>
+        <v>1075</v>
       </c>
       <c r="B292" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="C292" t="s">
         <v>836</v>
@@ -9780,32 +9780,32 @@
         <v>1307</v>
       </c>
       <c r="E292" t="s">
-        <v>515</v>
+        <v>426</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>1136</v>
+        <v>1076</v>
       </c>
       <c r="B293" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="C293" t="s">
         <v>836</v>
       </c>
       <c r="D293" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="E293" t="s">
-        <v>517</v>
+        <v>429</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>1137</v>
+        <v>1077</v>
       </c>
       <c r="B294" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="C294" t="s">
         <v>836</v>
@@ -9814,15 +9814,15 @@
         <v>834</v>
       </c>
       <c r="E294" t="s">
-        <v>519</v>
+        <v>432</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>1138</v>
+        <v>1078</v>
       </c>
       <c r="B295" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="C295" t="s">
         <v>836</v>
@@ -9831,32 +9831,32 @@
         <v>834</v>
       </c>
       <c r="E295" t="s">
-        <v>522</v>
+        <v>435</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>1139</v>
+        <v>1073</v>
       </c>
       <c r="B296" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="C296" t="s">
         <v>836</v>
       </c>
       <c r="D296" t="s">
-        <v>1307</v>
+        <v>834</v>
       </c>
       <c r="E296" t="s">
-        <v>524</v>
+        <v>420</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>1140</v>
+        <v>1074</v>
       </c>
       <c r="B297" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="C297" t="s">
         <v>836</v>
@@ -9865,117 +9865,117 @@
         <v>834</v>
       </c>
       <c r="E297" t="s">
-        <v>526</v>
+        <v>423</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>1141</v>
+        <v>1081</v>
       </c>
       <c r="B298" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="C298" t="s">
         <v>836</v>
       </c>
       <c r="D298" t="s">
-        <v>834</v>
+        <v>1307</v>
       </c>
       <c r="E298" t="s">
-        <v>528</v>
+        <v>444</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>1142</v>
+        <v>1082</v>
       </c>
       <c r="B299" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="C299" t="s">
         <v>836</v>
       </c>
       <c r="D299" t="s">
-        <v>834</v>
+        <v>1307</v>
       </c>
       <c r="E299" t="s">
-        <v>530</v>
+        <v>447</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>1143</v>
+        <v>1083</v>
       </c>
       <c r="B300" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="C300" t="s">
         <v>836</v>
       </c>
       <c r="D300" t="s">
-        <v>834</v>
+        <v>1307</v>
       </c>
       <c r="E300" t="s">
-        <v>532</v>
+        <v>450</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>1144</v>
+        <v>1084</v>
       </c>
       <c r="B301" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="C301" t="s">
         <v>836</v>
       </c>
       <c r="D301" t="s">
-        <v>834</v>
+        <v>1307</v>
       </c>
       <c r="E301" t="s">
-        <v>534</v>
+        <v>453</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>1145</v>
+        <v>1085</v>
       </c>
       <c r="B302" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="C302" t="s">
         <v>836</v>
       </c>
       <c r="D302" t="s">
-        <v>834</v>
+        <v>1297</v>
       </c>
       <c r="E302" t="s">
-        <v>536</v>
+        <v>456</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>1146</v>
+        <v>1086</v>
       </c>
       <c r="B303" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="C303" t="s">
         <v>836</v>
       </c>
       <c r="D303" t="s">
-        <v>834</v>
+        <v>1308</v>
       </c>
       <c r="E303" t="s">
-        <v>538</v>
+        <v>458</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>1147</v>
+        <v>1087</v>
       </c>
       <c r="B304" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="C304" t="s">
         <v>836</v>
@@ -9984,1120 +9984,1120 @@
         <v>834</v>
       </c>
       <c r="E304" t="s">
-        <v>540</v>
+        <v>460</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>1148</v>
+        <v>1088</v>
       </c>
       <c r="B305" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="C305" t="s">
         <v>836</v>
       </c>
       <c r="D305" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E305" t="s">
-        <v>542</v>
+        <v>463</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>1149</v>
+        <v>1089</v>
       </c>
       <c r="B306" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="C306" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D306" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E306" t="s">
-        <v>545</v>
+        <v>466</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>1150</v>
+        <v>1064</v>
       </c>
       <c r="B307" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="C307" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D307" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E307" t="s">
-        <v>548</v>
+        <v>393</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>1151</v>
+        <v>1065</v>
       </c>
       <c r="B308" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="C308" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D308" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E308" t="s">
-        <v>550</v>
+        <v>396</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>1152</v>
+        <v>1066</v>
       </c>
       <c r="B309" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="C309" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D309" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E309" t="s">
-        <v>553</v>
+        <v>399</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>1153</v>
+        <v>1067</v>
       </c>
       <c r="B310" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="C310" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D310" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E310" t="s">
-        <v>555</v>
+        <v>402</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>1154</v>
+        <v>1090</v>
       </c>
       <c r="B311" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C311" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D311" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E311" t="s">
-        <v>557</v>
+        <v>387</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>1155</v>
+        <v>1091</v>
       </c>
       <c r="B312" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C312" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D312" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E312" t="s">
-        <v>559</v>
+        <v>390</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>1156</v>
+        <v>1096</v>
       </c>
       <c r="B313" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C313" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D313" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E313" t="s">
-        <v>561</v>
+        <v>405</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>1157</v>
+        <v>1097</v>
       </c>
       <c r="B314" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C314" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D314" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E314" t="s">
-        <v>563</v>
+        <v>408</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>1158</v>
+        <v>1106</v>
       </c>
       <c r="B315" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C315" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D315" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E315" t="s">
-        <v>565</v>
+        <v>438</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>1159</v>
+        <v>1107</v>
       </c>
       <c r="B316" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C316" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D316" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E316" t="s">
-        <v>567</v>
+        <v>441</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>1160</v>
+        <v>1098</v>
       </c>
       <c r="B317" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C317" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D317" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E317" t="s">
-        <v>569</v>
+        <v>411</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>1161</v>
+        <v>1099</v>
       </c>
       <c r="B318" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C318" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D318" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E318" t="s">
-        <v>571</v>
+        <v>414</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>1162</v>
+        <v>1100</v>
       </c>
       <c r="B319" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C319" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D319" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E319" t="s">
-        <v>573</v>
+        <v>417</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>1163</v>
+        <v>1101</v>
       </c>
       <c r="B320" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C320" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D320" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E320" t="s">
-        <v>575</v>
+        <v>426</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>1164</v>
+        <v>430</v>
       </c>
       <c r="B321" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C321" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D321" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E321" t="s">
-        <v>577</v>
+        <v>429</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>1165</v>
+        <v>1102</v>
       </c>
       <c r="B322" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C322" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D322" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E322" t="s">
-        <v>1293</v>
+        <v>432</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>1166</v>
+        <v>1103</v>
       </c>
       <c r="B323" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C323" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D323" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E323" t="s">
-        <v>581</v>
+        <v>435</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>1167</v>
+        <v>1104</v>
       </c>
       <c r="B324" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C324" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D324" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E324" t="s">
-        <v>583</v>
+        <v>420</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>1168</v>
+        <v>1105</v>
       </c>
       <c r="B325" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C325" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D325" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E325" t="s">
-        <v>585</v>
+        <v>423</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>1169</v>
+        <v>1108</v>
       </c>
       <c r="B326" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C326" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D326" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E326" t="s">
-        <v>587</v>
+        <v>444</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>1170</v>
+        <v>1109</v>
       </c>
       <c r="B327" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C327" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D327" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E327" t="s">
-        <v>589</v>
+        <v>447</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>1171</v>
+        <v>1110</v>
       </c>
       <c r="B328" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C328" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D328" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E328" t="s">
-        <v>591</v>
+        <v>450</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>1172</v>
+        <v>1111</v>
       </c>
       <c r="B329" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C329" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D329" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E329" t="s">
-        <v>593</v>
+        <v>453</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>1173</v>
+        <v>1112</v>
       </c>
       <c r="B330" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C330" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D330" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E330" t="s">
-        <v>595</v>
+        <v>456</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>1174</v>
+        <v>1113</v>
       </c>
       <c r="B331" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C331" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D331" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="E331" t="s">
-        <v>597</v>
+        <v>458</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>1175</v>
+        <v>1114</v>
       </c>
       <c r="B332" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C332" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D332" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E332" t="s">
-        <v>599</v>
+        <v>460</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>1176</v>
+        <v>1115</v>
       </c>
       <c r="B333" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C333" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D333" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E333" t="s">
-        <v>601</v>
+        <v>463</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>1177</v>
+        <v>1116</v>
       </c>
       <c r="B334" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C334" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D334" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E334" t="s">
-        <v>603</v>
+        <v>466</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>1178</v>
+        <v>1092</v>
       </c>
       <c r="B335" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C335" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D335" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E335" t="s">
-        <v>605</v>
+        <v>393</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>1179</v>
+        <v>1093</v>
       </c>
       <c r="B336" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C336" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D336" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E336" t="s">
-        <v>607</v>
+        <v>396</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>1180</v>
+        <v>1094</v>
       </c>
       <c r="B337" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C337" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D337" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E337" t="s">
-        <v>609</v>
+        <v>399</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>1181</v>
+        <v>1095</v>
       </c>
       <c r="B338" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C338" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D338" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E338" t="s">
-        <v>611</v>
+        <v>402</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>1182</v>
+        <v>1117</v>
       </c>
       <c r="B339" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="C339" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D339" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E339" t="s">
-        <v>613</v>
+        <v>387</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>1183</v>
+        <v>1118</v>
       </c>
       <c r="B340" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="C340" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D340" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E340" t="s">
-        <v>615</v>
+        <v>390</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>1184</v>
+        <v>1119</v>
       </c>
       <c r="B341" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="C341" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D341" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E341" t="s">
-        <v>617</v>
+        <v>393</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>1185</v>
+        <v>1120</v>
       </c>
       <c r="B342" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="C342" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D342" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E342" t="s">
-        <v>619</v>
+        <v>396</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>1186</v>
+        <v>1121</v>
       </c>
       <c r="B343" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="C343" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D343" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E343" t="s">
-        <v>621</v>
+        <v>399</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>1187</v>
+        <v>1122</v>
       </c>
       <c r="B344" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="C344" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D344" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E344" t="s">
-        <v>623</v>
+        <v>402</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>1188</v>
+        <v>1123</v>
       </c>
       <c r="B345" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="C345" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D345" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E345" t="s">
-        <v>625</v>
+        <v>387</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>1189</v>
+        <v>1124</v>
       </c>
       <c r="B346" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="C346" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D346" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E346" t="s">
-        <v>627</v>
+        <v>390</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>1190</v>
+        <v>1125</v>
       </c>
       <c r="B347" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="C347" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D347" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E347" t="s">
-        <v>629</v>
+        <v>393</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>1191</v>
+        <v>1126</v>
       </c>
       <c r="B348" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="C348" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D348" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E348" t="s">
-        <v>631</v>
+        <v>396</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>1192</v>
+        <v>1127</v>
       </c>
       <c r="B349" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="C349" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D349" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E349" t="s">
-        <v>633</v>
+        <v>399</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>1193</v>
+        <v>1128</v>
       </c>
       <c r="B350" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="C350" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D350" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E350" t="s">
-        <v>635</v>
+        <v>402</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>1194</v>
+        <v>1129</v>
       </c>
       <c r="B351" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C351" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D351" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E351" t="s">
-        <v>637</v>
+        <v>387</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>1195</v>
+        <v>1130</v>
       </c>
       <c r="B352" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C352" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D352" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E352" t="s">
-        <v>639</v>
+        <v>390</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>1196</v>
+        <v>1131</v>
       </c>
       <c r="B353" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C353" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D353" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E353" t="s">
-        <v>641</v>
+        <v>393</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>1197</v>
+        <v>1132</v>
       </c>
       <c r="B354" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C354" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D354" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E354" t="s">
-        <v>643</v>
+        <v>396</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>1198</v>
+        <v>1133</v>
       </c>
       <c r="B355" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C355" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D355" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E355" t="s">
-        <v>645</v>
+        <v>399</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>1199</v>
+        <v>1134</v>
       </c>
       <c r="B356" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C356" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D356" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E356" t="s">
-        <v>647</v>
+        <v>402</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>1200</v>
+        <v>1139</v>
       </c>
       <c r="B357" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C357" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D357" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E357" t="s">
-        <v>649</v>
+        <v>524</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>1201</v>
+        <v>1140</v>
       </c>
       <c r="B358" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C358" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D358" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E358" t="s">
-        <v>651</v>
+        <v>526</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>1202</v>
+        <v>1141</v>
       </c>
       <c r="B359" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C359" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D359" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E359" t="s">
-        <v>653</v>
+        <v>528</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>1203</v>
+        <v>1142</v>
       </c>
       <c r="B360" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C360" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D360" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E360" t="s">
-        <v>655</v>
+        <v>530</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>1204</v>
+        <v>1143</v>
       </c>
       <c r="B361" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C361" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D361" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E361" t="s">
-        <v>657</v>
+        <v>532</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>1205</v>
+        <v>1144</v>
       </c>
       <c r="B362" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C362" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D362" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E362" t="s">
-        <v>659</v>
+        <v>534</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>1206</v>
+        <v>1145</v>
       </c>
       <c r="B363" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C363" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D363" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E363" t="s">
-        <v>661</v>
+        <v>536</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>1207</v>
+        <v>1146</v>
       </c>
       <c r="B364" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C364" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D364" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E364" t="s">
-        <v>663</v>
+        <v>538</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>1208</v>
+        <v>1147</v>
       </c>
       <c r="B365" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C365" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D365" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E365" t="s">
-        <v>665</v>
+        <v>540</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>1209</v>
+        <v>1136</v>
       </c>
       <c r="B366" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C366" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D366" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E366" t="s">
-        <v>667</v>
+        <v>517</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>1210</v>
+        <v>1135</v>
       </c>
       <c r="B367" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C367" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D367" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E367" t="s">
-        <v>669</v>
+        <v>515</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>1211</v>
+        <v>1138</v>
       </c>
       <c r="B368" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C368" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D368" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E368" t="s">
-        <v>671</v>
+        <v>522</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>1212</v>
+        <v>1137</v>
       </c>
       <c r="B369" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C369" t="s">
-        <v>1309</v>
+        <v>836</v>
       </c>
       <c r="D369" t="s">
-        <v>1306</v>
+        <v>834</v>
       </c>
       <c r="E369" t="s">
-        <v>673</v>
+        <v>519</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>1213</v>
+        <v>1221</v>
       </c>
       <c r="B370" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C370" t="s">
         <v>836</v>
@@ -11106,15 +11106,15 @@
         <v>1297</v>
       </c>
       <c r="E370" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="B371" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C371" t="s">
         <v>836</v>
@@ -11123,32 +11123,32 @@
         <v>1297</v>
       </c>
       <c r="E371" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>1215</v>
+        <v>1222</v>
       </c>
       <c r="B372" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C372" t="s">
         <v>836</v>
       </c>
       <c r="D372" t="s">
-        <v>1297</v>
+        <v>1310</v>
       </c>
       <c r="E372" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="B373" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C373" t="s">
         <v>836</v>
@@ -11157,32 +11157,32 @@
         <v>1297</v>
       </c>
       <c r="E373" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>691</v>
+        <v>1218</v>
       </c>
       <c r="B374" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C374" t="s">
         <v>836</v>
       </c>
       <c r="D374" t="s">
-        <v>1310</v>
+        <v>1297</v>
       </c>
       <c r="E374" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="B375" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C375" t="s">
         <v>1311</v>
@@ -11196,10 +11196,10 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B376" t="s">
-        <v>1294</v>
+        <v>1299</v>
       </c>
       <c r="C376" t="s">
         <v>836</v>
@@ -11208,15 +11208,15 @@
         <v>1297</v>
       </c>
       <c r="E376" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="B377" t="s">
-        <v>1294</v>
+        <v>1299</v>
       </c>
       <c r="C377" t="s">
         <v>836</v>
@@ -11225,32 +11225,32 @@
         <v>1297</v>
       </c>
       <c r="E377" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>1220</v>
+        <v>691</v>
       </c>
       <c r="B378" t="s">
-        <v>1294</v>
+        <v>1299</v>
       </c>
       <c r="C378" t="s">
         <v>836</v>
       </c>
       <c r="D378" t="s">
-        <v>1297</v>
+        <v>1310</v>
       </c>
       <c r="E378" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="B379" t="s">
-        <v>1294</v>
+        <v>1299</v>
       </c>
       <c r="C379" t="s">
         <v>836</v>
@@ -11259,32 +11259,32 @@
         <v>1297</v>
       </c>
       <c r="E379" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="B380" t="s">
-        <v>1294</v>
+        <v>1299</v>
       </c>
       <c r="C380" t="s">
         <v>836</v>
       </c>
       <c r="D380" t="s">
-        <v>1310</v>
+        <v>1297</v>
       </c>
       <c r="E380" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B381" t="s">
-        <v>1294</v>
+        <v>1299</v>
       </c>
       <c r="C381" t="s">
         <v>1311</v>
@@ -11298,7 +11298,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>1224</v>
+        <v>1231</v>
       </c>
       <c r="B382" t="s">
         <v>1294</v>
@@ -11310,12 +11310,12 @@
         <v>835</v>
       </c>
       <c r="E382" t="s">
-        <v>694</v>
+        <v>715</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B383" t="s">
         <v>1294</v>
@@ -11327,12 +11327,12 @@
         <v>835</v>
       </c>
       <c r="E383" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B384" t="s">
         <v>1294</v>
@@ -11344,12 +11344,12 @@
         <v>835</v>
       </c>
       <c r="E384" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B385" t="s">
         <v>1294</v>
@@ -11361,12 +11361,12 @@
         <v>835</v>
       </c>
       <c r="E385" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="B386" t="s">
         <v>1294</v>
@@ -11378,12 +11378,12 @@
         <v>835</v>
       </c>
       <c r="E386" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="B387" t="s">
         <v>1294</v>
@@ -11395,12 +11395,12 @@
         <v>835</v>
       </c>
       <c r="E387" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="B388" t="s">
         <v>1294</v>
@@ -11412,12 +11412,12 @@
         <v>835</v>
       </c>
       <c r="E388" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B389" t="s">
         <v>1294</v>
@@ -11429,12 +11429,12 @@
         <v>835</v>
       </c>
       <c r="E389" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="B390" t="s">
         <v>1294</v>
@@ -11446,12 +11446,12 @@
         <v>835</v>
       </c>
       <c r="E390" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="B391" t="s">
         <v>1294</v>
@@ -11463,7 +11463,7 @@
         <v>835</v>
       </c>
       <c r="E391" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
@@ -11485,7 +11485,7 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="B393" t="s">
         <v>1299</v>
@@ -11497,12 +11497,12 @@
         <v>835</v>
       </c>
       <c r="E393" t="s">
-        <v>694</v>
+        <v>715</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B394" t="s">
         <v>1299</v>
@@ -11514,12 +11514,12 @@
         <v>835</v>
       </c>
       <c r="E394" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B395" t="s">
         <v>1299</v>
@@ -11531,12 +11531,12 @@
         <v>835</v>
       </c>
       <c r="E395" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B396" t="s">
         <v>1299</v>
@@ -11548,12 +11548,12 @@
         <v>835</v>
       </c>
       <c r="E396" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>707</v>
+        <v>1242</v>
       </c>
       <c r="B397" t="s">
         <v>1299</v>
@@ -11565,12 +11565,12 @@
         <v>835</v>
       </c>
       <c r="E397" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="B398" t="s">
         <v>1299</v>
@@ -11582,12 +11582,12 @@
         <v>835</v>
       </c>
       <c r="E398" t="s">
-        <v>709</v>
+        <v>736</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B399" t="s">
         <v>1299</v>
@@ -11599,12 +11599,12 @@
         <v>835</v>
       </c>
       <c r="E399" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>1241</v>
+        <v>707</v>
       </c>
       <c r="B400" t="s">
         <v>1299</v>
@@ -11616,12 +11616,12 @@
         <v>835</v>
       </c>
       <c r="E400" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="B401" t="s">
         <v>1299</v>
@@ -11633,12 +11633,12 @@
         <v>835</v>
       </c>
       <c r="E401" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="B402" t="s">
         <v>1299</v>
@@ -11650,7 +11650,7 @@
         <v>835</v>
       </c>
       <c r="E402" t="s">
-        <v>736</v>
+        <v>712</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
@@ -11672,10 +11672,10 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="B404" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C404" t="s">
         <v>1312</v>
@@ -11684,15 +11684,15 @@
         <v>835</v>
       </c>
       <c r="E404" t="s">
-        <v>739</v>
+        <v>715</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="B405" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C405" t="s">
         <v>1312</v>
@@ -11701,15 +11701,15 @@
         <v>835</v>
       </c>
       <c r="E405" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="B406" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C406" t="s">
         <v>1312</v>
@@ -11723,10 +11723,10 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B407" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C407" t="s">
         <v>1312</v>
@@ -11740,10 +11740,10 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="B408" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C408" t="s">
         <v>1312</v>
@@ -11757,10 +11757,10 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="B409" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C409" t="s">
         <v>1312</v>
@@ -11774,10 +11774,10 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="B410" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="C410" t="s">
         <v>1312</v>
@@ -11786,15 +11786,15 @@
         <v>835</v>
       </c>
       <c r="E410" t="s">
-        <v>715</v>
+        <v>749</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="B411" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="C411" t="s">
         <v>1312</v>
@@ -11803,12 +11803,12 @@
         <v>835</v>
       </c>
       <c r="E411" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="B412" t="s">
         <v>1304</v>
@@ -11820,12 +11820,12 @@
         <v>835</v>
       </c>
       <c r="E412" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="B413" t="s">
         <v>1304</v>
@@ -11837,12 +11837,12 @@
         <v>835</v>
       </c>
       <c r="E413" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="B414" t="s">
         <v>1304</v>
@@ -11854,12 +11854,12 @@
         <v>835</v>
       </c>
       <c r="E414" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="B415" t="s">
         <v>1304</v>
@@ -11871,12 +11871,12 @@
         <v>835</v>
       </c>
       <c r="E415" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="B416" t="s">
         <v>1304</v>
@@ -11888,12 +11888,12 @@
         <v>835</v>
       </c>
       <c r="E416" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="B417" t="s">
         <v>1304</v>
@@ -11905,15 +11905,15 @@
         <v>835</v>
       </c>
       <c r="E417" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>1259</v>
+        <v>1245</v>
       </c>
       <c r="B418" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C418" t="s">
         <v>1312</v>
@@ -11922,15 +11922,15 @@
         <v>835</v>
       </c>
       <c r="E418" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>1260</v>
+        <v>1246</v>
       </c>
       <c r="B419" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C419" t="s">
         <v>1312</v>
@@ -11939,7 +11939,7 @@
         <v>835</v>
       </c>
       <c r="E419" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
@@ -12046,10 +12046,10 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>1267</v>
+        <v>1287</v>
       </c>
       <c r="B426" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="C426" t="s">
         <v>1312</v>
@@ -12058,15 +12058,15 @@
         <v>833</v>
       </c>
       <c r="E426" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>1268</v>
+        <v>1288</v>
       </c>
       <c r="B427" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="C427" t="s">
         <v>1312</v>
@@ -12075,15 +12075,15 @@
         <v>833</v>
       </c>
       <c r="E427" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>1269</v>
+        <v>1289</v>
       </c>
       <c r="B428" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="C428" t="s">
         <v>1312</v>
@@ -12092,15 +12092,15 @@
         <v>833</v>
       </c>
       <c r="E428" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>1270</v>
+        <v>1290</v>
       </c>
       <c r="B429" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="C429" t="s">
         <v>1312</v>
@@ -12109,46 +12109,46 @@
         <v>833</v>
       </c>
       <c r="E429" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>1271</v>
+        <v>1291</v>
       </c>
       <c r="B430" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="C430" t="s">
         <v>1312</v>
       </c>
       <c r="D430" t="s">
-        <v>833</v>
+        <v>1313</v>
       </c>
       <c r="E430" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>1272</v>
+        <v>1292</v>
       </c>
       <c r="B431" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="C431" t="s">
         <v>1312</v>
       </c>
       <c r="D431" t="s">
-        <v>833</v>
+        <v>1313</v>
       </c>
       <c r="E431" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="B432" t="s">
         <v>1304</v>
@@ -12160,12 +12160,12 @@
         <v>833</v>
       </c>
       <c r="E432" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B433" t="s">
         <v>1304</v>
@@ -12174,15 +12174,15 @@
         <v>1312</v>
       </c>
       <c r="D433" t="s">
-        <v>833</v>
+        <v>1313</v>
       </c>
       <c r="E433" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B434" t="s">
         <v>1304</v>
@@ -12194,12 +12194,12 @@
         <v>1313</v>
       </c>
       <c r="E434" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B435" t="s">
         <v>1304</v>
@@ -12211,12 +12211,12 @@
         <v>1313</v>
       </c>
       <c r="E435" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B436" t="s">
         <v>1304</v>
@@ -12228,12 +12228,12 @@
         <v>1313</v>
       </c>
       <c r="E436" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B437" t="s">
         <v>1304</v>
@@ -12245,12 +12245,12 @@
         <v>1313</v>
       </c>
       <c r="E437" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B438" t="s">
         <v>1304</v>
@@ -12262,12 +12262,12 @@
         <v>1313</v>
       </c>
       <c r="E438" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B439" t="s">
         <v>1304</v>
@@ -12279,12 +12279,12 @@
         <v>1313</v>
       </c>
       <c r="E439" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B440" t="s">
         <v>1304</v>
@@ -12296,12 +12296,12 @@
         <v>1313</v>
       </c>
       <c r="E440" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>1282</v>
+        <v>1268</v>
       </c>
       <c r="B441" t="s">
         <v>1304</v>
@@ -12310,10 +12310,10 @@
         <v>1312</v>
       </c>
       <c r="D441" t="s">
-        <v>1313</v>
+        <v>833</v>
       </c>
       <c r="E441" t="s">
-        <v>813</v>
+        <v>785</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
@@ -12352,10 +12352,10 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>1285</v>
+        <v>1269</v>
       </c>
       <c r="B444" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C444" t="s">
         <v>1312</v>
@@ -12364,32 +12364,32 @@
         <v>833</v>
       </c>
       <c r="E444" t="s">
-        <v>819</v>
+        <v>787</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>1286</v>
+        <v>1270</v>
       </c>
       <c r="B445" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C445" t="s">
         <v>1312</v>
       </c>
       <c r="D445" t="s">
-        <v>1313</v>
+        <v>833</v>
       </c>
       <c r="E445" t="s">
-        <v>821</v>
+        <v>789</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>1287</v>
+        <v>1271</v>
       </c>
       <c r="B446" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="C446" t="s">
         <v>1312</v>
@@ -12398,15 +12398,15 @@
         <v>833</v>
       </c>
       <c r="E446" t="s">
-        <v>765</v>
+        <v>791</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>1288</v>
+        <v>1272</v>
       </c>
       <c r="B447" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="C447" t="s">
         <v>1312</v>
@@ -12415,15 +12415,15 @@
         <v>833</v>
       </c>
       <c r="E447" t="s">
-        <v>768</v>
+        <v>793</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>1289</v>
+        <v>1273</v>
       </c>
       <c r="B448" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="C448" t="s">
         <v>1312</v>
@@ -12432,15 +12432,15 @@
         <v>833</v>
       </c>
       <c r="E448" t="s">
-        <v>771</v>
+        <v>795</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>1290</v>
+        <v>1274</v>
       </c>
       <c r="B449" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="C449" t="s">
         <v>1312</v>
@@ -12449,32 +12449,32 @@
         <v>833</v>
       </c>
       <c r="E449" t="s">
-        <v>774</v>
+        <v>797</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="B450" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="C450" t="s">
         <v>1312</v>
       </c>
       <c r="D450" t="s">
-        <v>1313</v>
+        <v>833</v>
       </c>
       <c r="E450" t="s">
-        <v>777</v>
+        <v>819</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="B451" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="C451" t="s">
         <v>1312</v>
@@ -12483,10 +12483,13 @@
         <v>1313</v>
       </c>
       <c r="E451" t="s">
-        <v>780</v>
+        <v>821</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:E451">
+    <sortCondition ref="A175"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
